--- a/check table need to reset.xlsx
+++ b/check table need to reset.xlsx
@@ -268,10 +268,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,12 +298,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -333,19 +345,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,7 +663,7 @@
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,92 +772,92 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -857,92 +872,92 @@
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -952,97 +967,97 @@
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1052,17 +1067,17 @@
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
